--- a/Materi Training/Day 1 - R Series/Data Utk Buku/Contoh data non tabular.xlsx
+++ b/Materi Training/Day 1 - R Series/Data Utk Buku/Contoh data non tabular.xlsx
@@ -20,9 +20,381 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t xml:space="preserve">Total Kasus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28-Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31-Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28-Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28-May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31-May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28-Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-Jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-Jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-Jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-Jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-Jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-Jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-Jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-Jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-Jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-Jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-Jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-Jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-Jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-Jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-Jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-Jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-Jul</t>
   </si>
   <si>
     <t xml:space="preserve">Jakarta</t>
@@ -41,15 +413,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="d\-mmm"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -65,13 +437,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,8 +486,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -145,1893 +510,1893 @@
   <dimension ref="A1:DU5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
-        <v>43908</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>43909</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>43910</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>43911</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>43912</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>43913</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>43914</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>43915</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>43916</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>43917</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>43918</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>43919</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>43920</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>43921</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>43922</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>43923</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>43924</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>43925</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>43926</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>43927</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>43928</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>43929</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>43930</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>43931</v>
-      </c>
-      <c r="Z1" s="1" t="n">
-        <v>43932</v>
-      </c>
-      <c r="AA1" s="1" t="n">
-        <v>43933</v>
-      </c>
-      <c r="AB1" s="1" t="n">
-        <v>43934</v>
-      </c>
-      <c r="AC1" s="1" t="n">
-        <v>43935</v>
-      </c>
-      <c r="AD1" s="1" t="n">
-        <v>43936</v>
-      </c>
-      <c r="AE1" s="1" t="n">
-        <v>43937</v>
-      </c>
-      <c r="AF1" s="1" t="n">
-        <v>43938</v>
-      </c>
-      <c r="AG1" s="1" t="n">
-        <v>43939</v>
-      </c>
-      <c r="AH1" s="1" t="n">
-        <v>43940</v>
-      </c>
-      <c r="AI1" s="1" t="n">
-        <v>43941</v>
-      </c>
-      <c r="AJ1" s="1" t="n">
-        <v>43942</v>
-      </c>
-      <c r="AK1" s="1" t="n">
-        <v>43943</v>
-      </c>
-      <c r="AL1" s="1" t="n">
-        <v>43944</v>
-      </c>
-      <c r="AM1" s="1" t="n">
-        <v>43945</v>
-      </c>
-      <c r="AN1" s="1" t="n">
-        <v>43946</v>
-      </c>
-      <c r="AO1" s="1" t="n">
-        <v>43947</v>
-      </c>
-      <c r="AP1" s="1" t="n">
-        <v>43948</v>
-      </c>
-      <c r="AQ1" s="1" t="n">
-        <v>43949</v>
-      </c>
-      <c r="AR1" s="1" t="n">
-        <v>43950</v>
-      </c>
-      <c r="AS1" s="1" t="n">
-        <v>43951</v>
-      </c>
-      <c r="AT1" s="1" t="n">
-        <v>43952</v>
-      </c>
-      <c r="AU1" s="1" t="n">
-        <v>43953</v>
-      </c>
-      <c r="AV1" s="1" t="n">
-        <v>43954</v>
-      </c>
-      <c r="AW1" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="AX1" s="1" t="n">
-        <v>43956</v>
-      </c>
-      <c r="AY1" s="1" t="n">
-        <v>43957</v>
-      </c>
-      <c r="AZ1" s="1" t="n">
-        <v>43958</v>
-      </c>
-      <c r="BA1" s="1" t="n">
-        <v>43959</v>
-      </c>
-      <c r="BB1" s="1" t="n">
-        <v>43960</v>
-      </c>
-      <c r="BC1" s="1" t="n">
-        <v>43961</v>
-      </c>
-      <c r="BD1" s="1" t="n">
-        <v>43962</v>
-      </c>
-      <c r="BE1" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="BF1" s="1" t="n">
-        <v>43964</v>
-      </c>
-      <c r="BG1" s="1" t="n">
-        <v>43965</v>
-      </c>
-      <c r="BH1" s="1" t="n">
-        <v>43966</v>
-      </c>
-      <c r="BI1" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="BJ1" s="1" t="n">
-        <v>43968</v>
-      </c>
-      <c r="BK1" s="1" t="n">
-        <v>43969</v>
-      </c>
-      <c r="BL1" s="1" t="n">
-        <v>43970</v>
-      </c>
-      <c r="BM1" s="1" t="n">
-        <v>43971</v>
-      </c>
-      <c r="BN1" s="1" t="n">
-        <v>43972</v>
-      </c>
-      <c r="BO1" s="1" t="n">
-        <v>43973</v>
-      </c>
-      <c r="BP1" s="1" t="n">
-        <v>43974</v>
-      </c>
-      <c r="BQ1" s="1" t="n">
-        <v>43975</v>
-      </c>
-      <c r="BR1" s="1" t="n">
-        <v>43976</v>
-      </c>
-      <c r="BS1" s="1" t="n">
-        <v>43977</v>
-      </c>
-      <c r="BT1" s="1" t="n">
-        <v>43978</v>
-      </c>
-      <c r="BU1" s="1" t="n">
-        <v>43979</v>
-      </c>
-      <c r="BV1" s="1" t="n">
-        <v>43980</v>
-      </c>
-      <c r="BW1" s="1" t="n">
-        <v>43981</v>
-      </c>
-      <c r="BX1" s="1" t="n">
-        <v>43982</v>
-      </c>
-      <c r="BY1" s="1" t="n">
-        <v>43983</v>
-      </c>
-      <c r="BZ1" s="1" t="n">
-        <v>43984</v>
-      </c>
-      <c r="CA1" s="1" t="n">
-        <v>43985</v>
-      </c>
-      <c r="CB1" s="1" t="n">
-        <v>43986</v>
-      </c>
-      <c r="CC1" s="1" t="n">
-        <v>43987</v>
-      </c>
-      <c r="CD1" s="1" t="n">
-        <v>43988</v>
-      </c>
-      <c r="CE1" s="1" t="n">
-        <v>43989</v>
-      </c>
-      <c r="CF1" s="1" t="n">
-        <v>43990</v>
-      </c>
-      <c r="CG1" s="1" t="n">
-        <v>43991</v>
-      </c>
-      <c r="CH1" s="1" t="n">
-        <v>43992</v>
-      </c>
-      <c r="CI1" s="1" t="n">
-        <v>43993</v>
-      </c>
-      <c r="CJ1" s="1" t="n">
-        <v>43994</v>
-      </c>
-      <c r="CK1" s="1" t="n">
-        <v>43995</v>
-      </c>
-      <c r="CL1" s="1" t="n">
-        <v>43996</v>
-      </c>
-      <c r="CM1" s="1" t="n">
-        <v>43997</v>
-      </c>
-      <c r="CN1" s="1" t="n">
-        <v>43998</v>
-      </c>
-      <c r="CO1" s="1" t="n">
-        <v>43999</v>
-      </c>
-      <c r="CP1" s="1" t="n">
-        <v>44000</v>
-      </c>
-      <c r="CQ1" s="1" t="n">
-        <v>44001</v>
-      </c>
-      <c r="CR1" s="1" t="n">
-        <v>44002</v>
-      </c>
-      <c r="CS1" s="1" t="n">
-        <v>44003</v>
-      </c>
-      <c r="CT1" s="1" t="n">
-        <v>44004</v>
-      </c>
-      <c r="CU1" s="1" t="n">
-        <v>44005</v>
-      </c>
-      <c r="CV1" s="1" t="n">
-        <v>44006</v>
-      </c>
-      <c r="CW1" s="1" t="n">
-        <v>44007</v>
-      </c>
-      <c r="CX1" s="1" t="n">
-        <v>44008</v>
-      </c>
-      <c r="CY1" s="1" t="n">
-        <v>44009</v>
-      </c>
-      <c r="CZ1" s="1" t="n">
-        <v>44010</v>
-      </c>
-      <c r="DA1" s="1" t="n">
-        <v>44011</v>
-      </c>
-      <c r="DB1" s="1" t="n">
-        <v>44012</v>
-      </c>
-      <c r="DC1" s="1" t="n">
-        <v>44013</v>
-      </c>
-      <c r="DD1" s="1" t="n">
-        <v>44014</v>
-      </c>
-      <c r="DE1" s="1" t="n">
-        <v>44015</v>
-      </c>
-      <c r="DF1" s="1" t="n">
-        <v>44016</v>
-      </c>
-      <c r="DG1" s="1" t="n">
-        <v>44017</v>
-      </c>
-      <c r="DH1" s="1" t="n">
-        <v>44018</v>
-      </c>
-      <c r="DI1" s="1" t="n">
-        <v>44019</v>
-      </c>
-      <c r="DJ1" s="1" t="n">
-        <v>44020</v>
-      </c>
-      <c r="DK1" s="1" t="n">
-        <v>44021</v>
-      </c>
-      <c r="DL1" s="1" t="n">
-        <v>44022</v>
-      </c>
-      <c r="DM1" s="1" t="n">
-        <v>44023</v>
-      </c>
-      <c r="DN1" s="1" t="n">
-        <v>44024</v>
-      </c>
-      <c r="DO1" s="1" t="n">
-        <v>44025</v>
-      </c>
-      <c r="DP1" s="1" t="n">
-        <v>44026</v>
-      </c>
-      <c r="DQ1" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="DR1" s="1" t="n">
-        <v>44028</v>
-      </c>
-      <c r="DS1" s="1" t="n">
-        <v>44029</v>
-      </c>
-      <c r="DT1" s="1" t="n">
-        <v>44030</v>
-      </c>
-      <c r="DU1" s="1" t="n">
-        <v>44031</v>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC1" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD1" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE1" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF1" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG1" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH1" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="DI1" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="DP1" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="DQ1" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR1" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS1" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT1" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="DU1" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="n">
+      <c r="A2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>307</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>353</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>424</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>463</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>515</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="1" t="n">
         <v>598</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="1" t="n">
         <v>627</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2" s="1" t="n">
         <v>698</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O2" s="1" t="n">
         <v>747</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="P2" s="1" t="n">
         <v>808</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="Q2" s="1" t="n">
         <v>897</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="R2" s="1" t="n">
         <v>971</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="S2" s="1" t="n">
         <v>1028</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="T2" s="1" t="n">
         <v>1124</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="U2" s="1" t="n">
         <v>1232</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="V2" s="1" t="n">
         <v>1369</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="W2" s="1" t="n">
         <v>1470</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="X2" s="1" t="n">
         <v>1706</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Y2" s="1" t="n">
         <v>1753</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="Z2" s="1" t="n">
         <v>1948</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AA2" s="1" t="n">
         <v>2044</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AB2" s="1" t="n">
         <v>2186</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AC2" s="1" t="n">
         <v>2335</v>
       </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AD2" s="1" t="n">
         <v>2474</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AE2" s="1" t="n">
         <v>2670</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AF2" s="1" t="n">
         <v>2815</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AG2" s="1" t="n">
         <v>2924</v>
       </c>
-      <c r="AH2" s="0" t="n">
+      <c r="AH2" s="1" t="n">
         <v>3032</v>
       </c>
-      <c r="AI2" s="0" t="n">
+      <c r="AI2" s="1" t="n">
         <v>3097</v>
       </c>
-      <c r="AJ2" s="0" t="n">
+      <c r="AJ2" s="1" t="n">
         <v>3260</v>
       </c>
-      <c r="AK2" s="0" t="n">
+      <c r="AK2" s="1" t="n">
         <v>3383</v>
       </c>
-      <c r="AL2" s="0" t="n">
+      <c r="AL2" s="1" t="n">
         <v>3517</v>
       </c>
-      <c r="AM2" s="0" t="n">
+      <c r="AM2" s="1" t="n">
         <v>3599</v>
       </c>
-      <c r="AN2" s="0" t="n">
+      <c r="AN2" s="1" t="n">
         <v>3684</v>
       </c>
-      <c r="AO2" s="0" t="n">
+      <c r="AO2" s="1" t="n">
         <v>3798</v>
       </c>
-      <c r="AP2" s="0" t="n">
+      <c r="AP2" s="1" t="n">
         <v>3869</v>
       </c>
-      <c r="AQ2" s="0" t="n">
+      <c r="AQ2" s="1" t="n">
         <v>4002</v>
       </c>
-      <c r="AR2" s="0" t="n">
+      <c r="AR2" s="1" t="n">
         <v>4092</v>
       </c>
-      <c r="AS2" s="0" t="n">
+      <c r="AS2" s="1" t="n">
         <v>4175</v>
       </c>
-      <c r="AT2" s="0" t="n">
+      <c r="AT2" s="1" t="n">
         <v>4317</v>
       </c>
-      <c r="AU2" s="0" t="n">
+      <c r="AU2" s="1" t="n">
         <v>4397</v>
       </c>
-      <c r="AV2" s="0" t="n">
+      <c r="AV2" s="1" t="n">
         <v>4463</v>
       </c>
-      <c r="AW2" s="0" t="n">
+      <c r="AW2" s="1" t="n">
         <v>4539</v>
       </c>
-      <c r="AX2" s="0" t="n">
+      <c r="AX2" s="1" t="n">
         <v>4687</v>
       </c>
-      <c r="AY2" s="0" t="n">
+      <c r="AY2" s="1" t="n">
         <v>4770</v>
       </c>
-      <c r="AZ2" s="0" t="n">
+      <c r="AZ2" s="1" t="n">
         <v>4855</v>
       </c>
-      <c r="BA2" s="0" t="n">
+      <c r="BA2" s="1" t="n">
         <v>4955</v>
       </c>
-      <c r="BB2" s="0" t="n">
+      <c r="BB2" s="1" t="n">
         <v>5056</v>
       </c>
-      <c r="BC2" s="0" t="n">
+      <c r="BC2" s="1" t="n">
         <v>5190</v>
       </c>
-      <c r="BD2" s="0" t="n">
+      <c r="BD2" s="1" t="n">
         <v>5276</v>
       </c>
-      <c r="BE2" s="0" t="n">
+      <c r="BE2" s="1" t="n">
         <v>5375</v>
       </c>
-      <c r="BF2" s="0" t="n">
+      <c r="BF2" s="1" t="n">
         <v>5554</v>
       </c>
-      <c r="BG2" s="0" t="n">
+      <c r="BG2" s="1" t="n">
         <v>5688</v>
       </c>
-      <c r="BH2" s="0" t="n">
+      <c r="BH2" s="1" t="n">
         <v>5774</v>
       </c>
-      <c r="BI2" s="0" t="n">
+      <c r="BI2" s="1" t="n">
         <v>5881</v>
       </c>
-      <c r="BJ2" s="0" t="n">
+      <c r="BJ2" s="1" t="n">
         <v>6010</v>
       </c>
-      <c r="BK2" s="0" t="n">
+      <c r="BK2" s="1" t="n">
         <v>6059</v>
       </c>
-      <c r="BL2" s="0" t="n">
+      <c r="BL2" s="1" t="n">
         <v>6155</v>
       </c>
-      <c r="BM2" s="0" t="n">
+      <c r="BM2" s="1" t="n">
         <v>6236</v>
       </c>
-      <c r="BN2" s="0" t="n">
+      <c r="BN2" s="1" t="n">
         <v>6301</v>
       </c>
-      <c r="BO2" s="0" t="n">
+      <c r="BO2" s="1" t="n">
         <v>6400</v>
       </c>
-      <c r="BP2" s="0" t="n">
+      <c r="BP2" s="1" t="n">
         <v>6515</v>
       </c>
-      <c r="BQ2" s="0" t="n">
+      <c r="BQ2" s="1" t="n">
         <v>6634</v>
       </c>
-      <c r="BR2" s="0" t="n">
+      <c r="BR2" s="1" t="n">
         <v>6709</v>
       </c>
-      <c r="BS2" s="0" t="n">
+      <c r="BS2" s="1" t="n">
         <v>6798</v>
       </c>
-      <c r="BT2" s="0" t="n">
+      <c r="BT2" s="1" t="n">
         <v>6895</v>
       </c>
-      <c r="BU2" s="0" t="n">
+      <c r="BU2" s="1" t="n">
         <v>7001</v>
       </c>
-      <c r="BV2" s="0" t="n">
+      <c r="BV2" s="1" t="n">
         <v>7128</v>
       </c>
-      <c r="BW2" s="0" t="n">
+      <c r="BW2" s="1" t="n">
         <v>7229</v>
       </c>
-      <c r="BX2" s="0" t="n">
+      <c r="BX2" s="1" t="n">
         <v>7348</v>
       </c>
-      <c r="BY2" s="0" t="n">
+      <c r="BY2" s="1" t="n">
         <v>7485</v>
       </c>
-      <c r="BZ2" s="0" t="n">
+      <c r="BZ2" s="1" t="n">
         <v>7541</v>
       </c>
-      <c r="CA2" s="0" t="n">
+      <c r="CA2" s="1" t="n">
         <v>7623</v>
       </c>
-      <c r="CB2" s="0" t="n">
+      <c r="CB2" s="1" t="n">
         <v>7690</v>
       </c>
-      <c r="CC2" s="0" t="n">
+      <c r="CC2" s="1" t="n">
         <v>7766</v>
       </c>
-      <c r="CD2" s="0" t="n">
+      <c r="CD2" s="1" t="n">
         <v>7870</v>
       </c>
-      <c r="CE2" s="0" t="n">
+      <c r="CE2" s="1" t="n">
         <v>8033</v>
       </c>
-      <c r="CF2" s="0" t="n">
+      <c r="CF2" s="1" t="n">
         <v>8121</v>
       </c>
-      <c r="CG2" s="0" t="n">
+      <c r="CG2" s="1" t="n">
         <v>8355</v>
       </c>
-      <c r="CH2" s="0" t="n">
+      <c r="CH2" s="1" t="n">
         <v>8503</v>
       </c>
-      <c r="CI2" s="0" t="n">
+      <c r="CI2" s="1" t="n">
         <v>8650</v>
       </c>
-      <c r="CJ2" s="0" t="n">
+      <c r="CJ2" s="1" t="n">
         <v>8740</v>
       </c>
-      <c r="CK2" s="0" t="n">
+      <c r="CK2" s="1" t="n">
         <v>8861</v>
       </c>
-      <c r="CL2" s="0" t="n">
+      <c r="CL2" s="1" t="n">
         <v>8978</v>
       </c>
-      <c r="CM2" s="0" t="n">
+      <c r="CM2" s="1" t="n">
         <v>9120</v>
       </c>
-      <c r="CN2" s="0" t="n">
+      <c r="CN2" s="1" t="n">
         <v>9222</v>
       </c>
-      <c r="CO2" s="0" t="n">
+      <c r="CO2" s="1" t="n">
         <v>9349</v>
       </c>
-      <c r="CP2" s="0" t="n">
+      <c r="CP2" s="1" t="n">
         <v>9516</v>
       </c>
-      <c r="CQ2" s="0" t="n">
+      <c r="CQ2" s="1" t="n">
         <v>9655</v>
       </c>
-      <c r="CR2" s="0" t="n">
+      <c r="CR2" s="1" t="n">
         <v>9829</v>
       </c>
-      <c r="CS2" s="0" t="n">
+      <c r="CS2" s="1" t="n">
         <v>9971</v>
       </c>
-      <c r="CT2" s="0" t="n">
+      <c r="CT2" s="1" t="n">
         <v>10098</v>
       </c>
-      <c r="CU2" s="0" t="n">
+      <c r="CU2" s="1" t="n">
         <v>10250</v>
       </c>
-      <c r="CV2" s="0" t="n">
+      <c r="CV2" s="1" t="n">
         <v>10404</v>
       </c>
-      <c r="CW2" s="0" t="n">
+      <c r="CW2" s="1" t="n">
         <v>10600</v>
       </c>
-      <c r="CX2" s="0" t="n">
+      <c r="CX2" s="1" t="n">
         <v>10796</v>
       </c>
-      <c r="CY2" s="0" t="n">
+      <c r="CY2" s="1" t="n">
         <v>10994</v>
       </c>
-      <c r="CZ2" s="0" t="n">
+      <c r="CZ2" s="1" t="n">
         <v>11114</v>
       </c>
-      <c r="DA2" s="0" t="n">
+      <c r="DA2" s="1" t="n">
         <v>11237</v>
       </c>
-      <c r="DB2" s="0" t="n">
+      <c r="DB2" s="1" t="n">
         <v>11424</v>
       </c>
-      <c r="DC2" s="0" t="n">
+      <c r="DC2" s="1" t="n">
         <v>11637</v>
       </c>
-      <c r="DD2" s="0" t="n">
+      <c r="DD2" s="1" t="n">
         <v>11823</v>
       </c>
-      <c r="DE2" s="0" t="n">
+      <c r="DE2" s="1" t="n">
         <v>11961</v>
       </c>
-      <c r="DF2" s="0" t="n">
+      <c r="DF2" s="1" t="n">
         <v>12183</v>
       </c>
-      <c r="DG2" s="0" t="n">
+      <c r="DG2" s="1" t="n">
         <v>12435</v>
       </c>
-      <c r="DH2" s="0" t="n">
+      <c r="DH2" s="1" t="n">
         <v>12667</v>
       </c>
-      <c r="DI2" s="0" t="n">
+      <c r="DI2" s="1" t="n">
         <v>12857</v>
       </c>
-      <c r="DJ2" s="0" t="n">
+      <c r="DJ2" s="1" t="n">
         <v>13211</v>
       </c>
-      <c r="DK2" s="0" t="n">
+      <c r="DK2" s="1" t="n">
         <v>13488</v>
       </c>
-      <c r="DL2" s="0" t="n">
+      <c r="DL2" s="1" t="n">
         <v>13739</v>
       </c>
-      <c r="DM2" s="0" t="n">
+      <c r="DM2" s="1" t="n">
         <v>14113</v>
       </c>
-      <c r="DN2" s="0" t="n">
+      <c r="DN2" s="1" t="n">
         <v>14517</v>
       </c>
-      <c r="DO2" s="0" t="n">
+      <c r="DO2" s="1" t="n">
         <v>14797</v>
       </c>
-      <c r="DP2" s="0" t="n">
+      <c r="DP2" s="1" t="n">
         <v>15064</v>
       </c>
-      <c r="DQ2" s="0" t="n">
+      <c r="DQ2" s="1" t="n">
         <v>15324</v>
       </c>
-      <c r="DR2" s="0" t="n">
+      <c r="DR2" s="1" t="n">
         <v>15636</v>
       </c>
-      <c r="DS2" s="0" t="n">
+      <c r="DS2" s="1" t="n">
         <v>15889</v>
       </c>
-      <c r="DT2" s="0" t="n">
+      <c r="DT2" s="1" t="n">
         <v>16236</v>
       </c>
-      <c r="DU2" s="0" t="n">
+      <c r="DU2" s="1" t="n">
         <v>16538</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="n">
+      <c r="A3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="N3" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="O3" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="P3" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="Q3" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="R3" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="S3" s="1" t="n">
         <v>247</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="T3" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="U3" s="1" t="n">
         <v>263</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="V3" s="1" t="n">
         <v>343</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="W3" s="1" t="n">
         <v>365</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="X3" s="1" t="n">
         <v>376</v>
       </c>
-      <c r="Y3" s="0" t="n">
+      <c r="Y3" s="1" t="n">
         <v>388</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="Z3" s="1" t="n">
         <v>421</v>
       </c>
-      <c r="AA3" s="0" t="n">
+      <c r="AA3" s="1" t="n">
         <v>450</v>
       </c>
-      <c r="AB3" s="0" t="n">
+      <c r="AB3" s="1" t="n">
         <v>540</v>
       </c>
-      <c r="AC3" s="0" t="n">
+      <c r="AC3" s="1" t="n">
         <v>530</v>
       </c>
-      <c r="AD3" s="0" t="n">
+      <c r="AD3" s="1" t="n">
         <v>559</v>
       </c>
-      <c r="AE3" s="0" t="n">
+      <c r="AE3" s="1" t="n">
         <v>570</v>
       </c>
-      <c r="AF3" s="0" t="n">
+      <c r="AF3" s="1" t="n">
         <v>632</v>
       </c>
-      <c r="AG3" s="0" t="n">
+      <c r="AG3" s="1" t="n">
         <v>641</v>
       </c>
-      <c r="AH3" s="0" t="n">
+      <c r="AH3" s="1" t="n">
         <v>696</v>
       </c>
-      <c r="AI3" s="0" t="n">
+      <c r="AI3" s="1" t="n">
         <v>747</v>
       </c>
-      <c r="AJ3" s="0" t="n">
+      <c r="AJ3" s="1" t="n">
         <v>756</v>
       </c>
-      <c r="AK3" s="0" t="n">
+      <c r="AK3" s="1" t="n">
         <v>762</v>
       </c>
-      <c r="AL3" s="0" t="n">
+      <c r="AL3" s="1" t="n">
         <v>784</v>
       </c>
-      <c r="AM3" s="0" t="n">
+      <c r="AM3" s="1" t="n">
         <v>862</v>
       </c>
-      <c r="AN3" s="0" t="n">
+      <c r="AN3" s="1" t="n">
         <v>907</v>
       </c>
-      <c r="AO3" s="0" t="n">
+      <c r="AO3" s="1" t="n">
         <v>912</v>
       </c>
-      <c r="AP3" s="0" t="n">
+      <c r="AP3" s="1" t="n">
         <v>951</v>
       </c>
-      <c r="AQ3" s="0" t="n">
+      <c r="AQ3" s="1" t="n">
         <v>969</v>
       </c>
-      <c r="AR3" s="0" t="n">
+      <c r="AR3" s="1" t="n">
         <v>1009</v>
       </c>
-      <c r="AS3" s="0" t="n">
+      <c r="AS3" s="1" t="n">
         <v>1012</v>
       </c>
-      <c r="AT3" s="0" t="n">
+      <c r="AT3" s="1" t="n">
         <v>1012</v>
       </c>
-      <c r="AU3" s="0" t="n">
+      <c r="AU3" s="1" t="n">
         <v>1043</v>
       </c>
-      <c r="AV3" s="0" t="n">
+      <c r="AV3" s="1" t="n">
         <v>1054</v>
       </c>
-      <c r="AW3" s="0" t="n">
+      <c r="AW3" s="1" t="n">
         <v>1252</v>
       </c>
-      <c r="AX3" s="0" t="n">
+      <c r="AX3" s="1" t="n">
         <v>1300</v>
       </c>
-      <c r="AY3" s="0" t="n">
+      <c r="AY3" s="1" t="n">
         <v>1320</v>
       </c>
-      <c r="AZ3" s="0" t="n">
+      <c r="AZ3" s="1" t="n">
         <v>1381</v>
       </c>
-      <c r="BA3" s="0" t="n">
+      <c r="BA3" s="1" t="n">
         <v>1404</v>
       </c>
-      <c r="BB3" s="0" t="n">
+      <c r="BB3" s="1" t="n">
         <v>1437</v>
       </c>
-      <c r="BC3" s="0" t="n">
+      <c r="BC3" s="1" t="n">
         <v>1437</v>
       </c>
-      <c r="BD3" s="0" t="n">
+      <c r="BD3" s="1" t="n">
         <v>1493</v>
       </c>
-      <c r="BE3" s="0" t="n">
+      <c r="BE3" s="1" t="n">
         <v>1545</v>
       </c>
-      <c r="BF3" s="0" t="n">
+      <c r="BF3" s="1" t="n">
         <v>1556</v>
       </c>
-      <c r="BG3" s="0" t="n">
+      <c r="BG3" s="1" t="n">
         <v>1565</v>
       </c>
-      <c r="BH3" s="0" t="n">
+      <c r="BH3" s="1" t="n">
         <v>1596</v>
       </c>
-      <c r="BI3" s="0" t="n">
+      <c r="BI3" s="1" t="n">
         <v>1618</v>
       </c>
-      <c r="BJ3" s="0" t="n">
+      <c r="BJ3" s="1" t="n">
         <v>1652</v>
       </c>
-      <c r="BK3" s="0" t="n">
+      <c r="BK3" s="1" t="n">
         <v>1677</v>
       </c>
-      <c r="BL3" s="0" t="n">
+      <c r="BL3" s="1" t="n">
         <v>1700</v>
       </c>
-      <c r="BM3" s="0" t="n">
+      <c r="BM3" s="1" t="n">
         <v>1876</v>
       </c>
-      <c r="BN3" s="0" t="n">
+      <c r="BN3" s="1" t="n">
         <v>1962</v>
       </c>
-      <c r="BO3" s="0" t="n">
+      <c r="BO3" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="BP3" s="0" t="n">
+      <c r="BP3" s="1" t="n">
         <v>2045</v>
       </c>
-      <c r="BQ3" s="0" t="n">
+      <c r="BQ3" s="1" t="n">
         <v>2091</v>
       </c>
-      <c r="BR3" s="0" t="n">
+      <c r="BR3" s="1" t="n">
         <v>2113</v>
       </c>
-      <c r="BS3" s="0" t="n">
+      <c r="BS3" s="1" t="n">
         <v>2130</v>
       </c>
-      <c r="BT3" s="0" t="n">
+      <c r="BT3" s="1" t="n">
         <v>2157</v>
       </c>
-      <c r="BU3" s="0" t="n">
+      <c r="BU3" s="1" t="n">
         <v>2181</v>
       </c>
-      <c r="BV3" s="0" t="n">
+      <c r="BV3" s="1" t="n">
         <v>2211</v>
       </c>
-      <c r="BW3" s="0" t="n">
+      <c r="BW3" s="1" t="n">
         <v>2231</v>
       </c>
-      <c r="BX3" s="0" t="n">
+      <c r="BX3" s="1" t="n">
         <v>2260</v>
       </c>
-      <c r="BY3" s="0" t="n">
+      <c r="BY3" s="1" t="n">
         <v>2294</v>
       </c>
-      <c r="BZ3" s="0" t="n">
+      <c r="BZ3" s="1" t="n">
         <v>2314</v>
       </c>
-      <c r="CA3" s="0" t="n">
+      <c r="CA3" s="1" t="n">
         <v>2319</v>
       </c>
-      <c r="CB3" s="0" t="n">
+      <c r="CB3" s="1" t="n">
         <v>2354</v>
       </c>
-      <c r="CC3" s="0" t="n">
+      <c r="CC3" s="1" t="n">
         <v>2366</v>
       </c>
-      <c r="CD3" s="0" t="n">
+      <c r="CD3" s="1" t="n">
         <v>2376</v>
       </c>
-      <c r="CE3" s="0" t="n">
+      <c r="CE3" s="1" t="n">
         <v>2404</v>
       </c>
-      <c r="CF3" s="0" t="n">
+      <c r="CF3" s="1" t="n">
         <v>2424</v>
       </c>
-      <c r="CG3" s="0" t="n">
+      <c r="CG3" s="1" t="n">
         <v>2448</v>
       </c>
-      <c r="CH3" s="0" t="n">
+      <c r="CH3" s="1" t="n">
         <v>2506</v>
       </c>
-      <c r="CI3" s="0" t="n">
+      <c r="CI3" s="1" t="n">
         <v>2551</v>
       </c>
-      <c r="CJ3" s="0" t="n">
+      <c r="CJ3" s="1" t="n">
         <v>2572</v>
       </c>
-      <c r="CK3" s="0" t="n">
+      <c r="CK3" s="1" t="n">
         <v>2587</v>
       </c>
-      <c r="CL3" s="0" t="n">
+      <c r="CL3" s="1" t="n">
         <v>2604</v>
       </c>
-      <c r="CM3" s="0" t="n">
+      <c r="CM3" s="1" t="n">
         <v>2623</v>
       </c>
-      <c r="CN3" s="0" t="n">
+      <c r="CN3" s="1" t="n">
         <v>2662</v>
       </c>
-      <c r="CO3" s="0" t="n">
+      <c r="CO3" s="1" t="n">
         <v>2703</v>
       </c>
-      <c r="CP3" s="0" t="n">
+      <c r="CP3" s="1" t="n">
         <v>2758</v>
       </c>
-      <c r="CQ3" s="0" t="n">
+      <c r="CQ3" s="1" t="n">
         <v>2805</v>
       </c>
-      <c r="CR3" s="0" t="n">
+      <c r="CR3" s="1" t="n">
         <v>2828</v>
       </c>
-      <c r="CS3" s="0" t="n">
+      <c r="CS3" s="1" t="n">
         <v>2848</v>
       </c>
-      <c r="CT3" s="0" t="n">
+      <c r="CT3" s="1" t="n">
         <v>2865</v>
       </c>
-      <c r="CU3" s="0" t="n">
+      <c r="CU3" s="1" t="n">
         <v>2901</v>
       </c>
-      <c r="CV3" s="0" t="n">
+      <c r="CV3" s="1" t="n">
         <v>2945</v>
       </c>
-      <c r="CW3" s="0" t="n">
+      <c r="CW3" s="1" t="n">
         <v>2977</v>
       </c>
-      <c r="CX3" s="0" t="n">
+      <c r="CX3" s="1" t="n">
         <v>3014</v>
       </c>
-      <c r="CY3" s="0" t="n">
+      <c r="CY3" s="1" t="n">
         <v>3064</v>
       </c>
-      <c r="CZ3" s="0" t="n">
+      <c r="CZ3" s="1" t="n">
         <v>3091</v>
       </c>
-      <c r="DA3" s="0" t="n">
+      <c r="DA3" s="1" t="n">
         <v>3134</v>
       </c>
-      <c r="DB3" s="0" t="n">
+      <c r="DB3" s="1" t="n">
         <v>3218</v>
       </c>
-      <c r="DC3" s="0" t="n">
+      <c r="DC3" s="1" t="n">
         <v>3276</v>
       </c>
-      <c r="DD3" s="0" t="n">
+      <c r="DD3" s="1" t="n">
         <v>3344</v>
       </c>
-      <c r="DE3" s="0" t="n">
+      <c r="DE3" s="1" t="n">
         <v>3374</v>
       </c>
-      <c r="DF3" s="0" t="n">
+      <c r="DF3" s="1" t="n">
         <v>3463</v>
       </c>
-      <c r="DG3" s="0" t="n">
+      <c r="DG3" s="1" t="n">
         <v>3574</v>
       </c>
-      <c r="DH3" s="0" t="n">
+      <c r="DH3" s="1" t="n">
         <v>3700</v>
       </c>
-      <c r="DI3" s="0" t="n">
+      <c r="DI3" s="1" t="n">
         <v>3779</v>
       </c>
-      <c r="DJ3" s="0" t="n">
+      <c r="DJ3" s="1" t="n">
         <v>3878</v>
       </c>
-      <c r="DK3" s="0" t="n">
+      <c r="DK3" s="1" t="n">
         <v>4843</v>
       </c>
-      <c r="DL3" s="0" t="n">
+      <c r="DL3" s="1" t="n">
         <v>4951</v>
       </c>
-      <c r="DM3" s="0" t="n">
+      <c r="DM3" s="1" t="n">
         <v>5027</v>
       </c>
-      <c r="DN3" s="0" t="n">
+      <c r="DN3" s="1" t="n">
         <v>5077</v>
       </c>
-      <c r="DO3" s="0" t="n">
+      <c r="DO3" s="1" t="n">
         <v>5160</v>
       </c>
-      <c r="DP3" s="0" t="n">
+      <c r="DP3" s="1" t="n">
         <v>5235</v>
       </c>
-      <c r="DQ3" s="0" t="n">
+      <c r="DQ3" s="1" t="n">
         <v>5310</v>
       </c>
-      <c r="DR3" s="0" t="n">
+      <c r="DR3" s="1" t="n">
         <v>5350</v>
       </c>
-      <c r="DS3" s="0" t="n">
+      <c r="DS3" s="1" t="n">
         <v>5402</v>
       </c>
-      <c r="DT3" s="0" t="n">
+      <c r="DT3" s="1" t="n">
         <v>5461</v>
       </c>
-      <c r="DU3" s="0" t="n">
+      <c r="DU3" s="1" t="n">
         <v>5488</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="n">
+      <c r="A4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="P4" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="Q4" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="R4" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="S4" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="T4" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="U4" s="0" t="n">
+      <c r="U4" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="V4" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="W4" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="X4" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="Y4" s="0" t="n">
+      <c r="Y4" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="Z4" s="0" t="n">
+      <c r="Z4" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="AA4" s="0" t="n">
+      <c r="AA4" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="AB4" s="0" t="n">
+      <c r="AB4" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="AC4" s="0" t="n">
+      <c r="AC4" s="1" t="n">
         <v>278</v>
       </c>
-      <c r="AD4" s="0" t="n">
+      <c r="AD4" s="1" t="n">
         <v>292</v>
       </c>
-      <c r="AE4" s="0" t="n">
+      <c r="AE4" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="AF4" s="0" t="n">
+      <c r="AF4" s="1" t="n">
         <v>304</v>
       </c>
-      <c r="AG4" s="0" t="n">
+      <c r="AG4" s="1" t="n">
         <v>329</v>
       </c>
-      <c r="AH4" s="0" t="n">
+      <c r="AH4" s="1" t="n">
         <v>349</v>
       </c>
-      <c r="AI4" s="0" t="n">
+      <c r="AI4" s="1" t="n">
         <v>351</v>
       </c>
-      <c r="AJ4" s="0" t="n">
+      <c r="AJ4" s="1" t="n">
         <v>449</v>
       </c>
-      <c r="AK4" s="0" t="n">
+      <c r="AK4" s="1" t="n">
         <v>479</v>
       </c>
-      <c r="AL4" s="0" t="n">
+      <c r="AL4" s="1" t="n">
         <v>538</v>
       </c>
-      <c r="AM4" s="0" t="n">
+      <c r="AM4" s="1" t="n">
         <v>575</v>
       </c>
-      <c r="AN4" s="0" t="n">
+      <c r="AN4" s="1" t="n">
         <v>621</v>
       </c>
-      <c r="AO4" s="0" t="n">
+      <c r="AO4" s="1" t="n">
         <v>649</v>
       </c>
-      <c r="AP4" s="0" t="n">
+      <c r="AP4" s="1" t="n">
         <v>666</v>
       </c>
-      <c r="AQ4" s="0" t="n">
+      <c r="AQ4" s="1" t="n">
         <v>682</v>
       </c>
-      <c r="AR4" s="0" t="n">
+      <c r="AR4" s="1" t="n">
         <v>711</v>
       </c>
-      <c r="AS4" s="0" t="n">
+      <c r="AS4" s="1" t="n">
         <v>724</v>
       </c>
-      <c r="AT4" s="0" t="n">
+      <c r="AT4" s="1" t="n">
         <v>746</v>
       </c>
-      <c r="AU4" s="0" t="n">
+      <c r="AU4" s="1" t="n">
         <v>767</v>
       </c>
-      <c r="AV4" s="0" t="n">
+      <c r="AV4" s="1" t="n">
         <v>776</v>
       </c>
-      <c r="AW4" s="0" t="n">
+      <c r="AW4" s="1" t="n">
         <v>798</v>
       </c>
-      <c r="AX4" s="0" t="n">
+      <c r="AX4" s="1" t="n">
         <v>849</v>
       </c>
-      <c r="AY4" s="0" t="n">
+      <c r="AY4" s="1" t="n">
         <v>891</v>
       </c>
-      <c r="AZ4" s="0" t="n">
+      <c r="AZ4" s="1" t="n">
         <v>904</v>
       </c>
-      <c r="BA4" s="0" t="n">
+      <c r="BA4" s="1" t="n">
         <v>933</v>
       </c>
-      <c r="BB4" s="0" t="n">
+      <c r="BB4" s="1" t="n">
         <v>959</v>
       </c>
-      <c r="BC4" s="0" t="n">
+      <c r="BC4" s="1" t="n">
         <v>978</v>
       </c>
-      <c r="BD4" s="0" t="n">
+      <c r="BD4" s="1" t="n">
         <v>980</v>
       </c>
-      <c r="BE4" s="0" t="n">
+      <c r="BE4" s="1" t="n">
         <v>989</v>
       </c>
-      <c r="BF4" s="0" t="n">
+      <c r="BF4" s="1" t="n">
         <v>1023</v>
       </c>
-      <c r="BG4" s="0" t="n">
+      <c r="BG4" s="1" t="n">
         <v>1066</v>
       </c>
-      <c r="BH4" s="0" t="n">
+      <c r="BH4" s="1" t="n">
         <v>1109</v>
       </c>
-      <c r="BI4" s="0" t="n">
+      <c r="BI4" s="1" t="n">
         <v>1140</v>
       </c>
-      <c r="BJ4" s="0" t="n">
+      <c r="BJ4" s="1" t="n">
         <v>1157</v>
       </c>
-      <c r="BK4" s="0" t="n">
+      <c r="BK4" s="1" t="n">
         <v>1165</v>
       </c>
-      <c r="BL4" s="0" t="n">
+      <c r="BL4" s="1" t="n">
         <v>1175</v>
       </c>
-      <c r="BM4" s="0" t="n">
+      <c r="BM4" s="1" t="n">
         <v>1192</v>
       </c>
-      <c r="BN4" s="0" t="n">
+      <c r="BN4" s="1" t="n">
         <v>1217</v>
       </c>
-      <c r="BO4" s="0" t="n">
+      <c r="BO4" s="1" t="n">
         <v>1234</v>
       </c>
-      <c r="BP4" s="0" t="n">
+      <c r="BP4" s="1" t="n">
         <v>1288</v>
       </c>
-      <c r="BQ4" s="0" t="n">
+      <c r="BQ4" s="1" t="n">
         <v>1309</v>
       </c>
-      <c r="BR4" s="0" t="n">
+      <c r="BR4" s="1" t="n">
         <v>1311</v>
       </c>
-      <c r="BS4" s="0" t="n">
+      <c r="BS4" s="1" t="n">
         <v>1315</v>
       </c>
-      <c r="BT4" s="0" t="n">
+      <c r="BT4" s="1" t="n">
         <v>1326</v>
       </c>
-      <c r="BU4" s="0" t="n">
+      <c r="BU4" s="1" t="n">
         <v>1336</v>
       </c>
-      <c r="BV4" s="0" t="n">
+      <c r="BV4" s="1" t="n">
         <v>1350</v>
       </c>
-      <c r="BW4" s="0" t="n">
+      <c r="BW4" s="1" t="n">
         <v>1366</v>
       </c>
-      <c r="BX4" s="0" t="n">
+      <c r="BX4" s="1" t="n">
         <v>1403</v>
       </c>
-      <c r="BY4" s="0" t="n">
+      <c r="BY4" s="1" t="n">
         <v>1417</v>
       </c>
-      <c r="BZ4" s="0" t="n">
+      <c r="BZ4" s="1" t="n">
         <v>1432</v>
       </c>
-      <c r="CA4" s="0" t="n">
+      <c r="CA4" s="1" t="n">
         <v>1455</v>
       </c>
-      <c r="CB4" s="0" t="n">
+      <c r="CB4" s="1" t="n">
         <v>1479</v>
       </c>
-      <c r="CC4" s="0" t="n">
+      <c r="CC4" s="1" t="n">
         <v>1537</v>
       </c>
-      <c r="CD4" s="0" t="n">
+      <c r="CD4" s="1" t="n">
         <v>1564</v>
       </c>
-      <c r="CE4" s="0" t="n">
+      <c r="CE4" s="1" t="n">
         <v>1615</v>
       </c>
-      <c r="CF4" s="0" t="n">
+      <c r="CF4" s="1" t="n">
         <v>1642</v>
       </c>
-      <c r="CG4" s="0" t="n">
+      <c r="CG4" s="1" t="n">
         <v>1674</v>
       </c>
-      <c r="CH4" s="0" t="n">
+      <c r="CH4" s="1" t="n">
         <v>1813</v>
       </c>
-      <c r="CI4" s="0" t="n">
+      <c r="CI4" s="1" t="n">
         <v>1832</v>
       </c>
-      <c r="CJ4" s="0" t="n">
+      <c r="CJ4" s="1" t="n">
         <v>1876</v>
       </c>
-      <c r="CK4" s="0" t="n">
+      <c r="CK4" s="1" t="n">
         <v>1946</v>
       </c>
-      <c r="CL4" s="0" t="n">
+      <c r="CL4" s="1" t="n">
         <v>2059</v>
       </c>
-      <c r="CM4" s="0" t="n">
+      <c r="CM4" s="1" t="n">
         <v>2175</v>
       </c>
-      <c r="CN4" s="0" t="n">
+      <c r="CN4" s="1" t="n">
         <v>2231</v>
       </c>
-      <c r="CO4" s="0" t="n">
+      <c r="CO4" s="1" t="n">
         <v>2346</v>
       </c>
-      <c r="CP4" s="0" t="n">
+      <c r="CP4" s="1" t="n">
         <v>2391</v>
       </c>
-      <c r="CQ4" s="0" t="n">
+      <c r="CQ4" s="1" t="n">
         <v>2471</v>
       </c>
-      <c r="CR4" s="0" t="n">
+      <c r="CR4" s="1" t="n">
         <v>2569</v>
       </c>
-      <c r="CS4" s="0" t="n">
+      <c r="CS4" s="1" t="n">
         <v>2668</v>
       </c>
-      <c r="CT4" s="0" t="n">
+      <c r="CT4" s="1" t="n">
         <v>2717</v>
       </c>
-      <c r="CU4" s="0" t="n">
+      <c r="CU4" s="1" t="n">
         <v>2766</v>
       </c>
-      <c r="CV4" s="0" t="n">
+      <c r="CV4" s="1" t="n">
         <v>2842</v>
       </c>
-      <c r="CW4" s="0" t="n">
+      <c r="CW4" s="1" t="n">
         <v>2920</v>
       </c>
-      <c r="CX4" s="0" t="n">
+      <c r="CX4" s="1" t="n">
         <v>3097</v>
       </c>
-      <c r="CY4" s="0" t="n">
+      <c r="CY4" s="1" t="n">
         <v>3294</v>
       </c>
-      <c r="CZ4" s="0" t="n">
+      <c r="CZ4" s="1" t="n">
         <v>3482</v>
       </c>
-      <c r="DA4" s="0" t="n">
+      <c r="DA4" s="1" t="n">
         <v>3680</v>
       </c>
-      <c r="DB4" s="0" t="n">
+      <c r="DB4" s="1" t="n">
         <v>3833</v>
       </c>
-      <c r="DC4" s="0" t="n">
+      <c r="DC4" s="1" t="n">
         <v>4006</v>
       </c>
-      <c r="DD4" s="0" t="n">
+      <c r="DD4" s="1" t="n">
         <v>4159</v>
       </c>
-      <c r="DE4" s="0" t="n">
+      <c r="DE4" s="1" t="n">
         <v>4293</v>
       </c>
-      <c r="DF4" s="0" t="n">
+      <c r="DF4" s="1" t="n">
         <v>4403</v>
       </c>
-      <c r="DG4" s="0" t="n">
+      <c r="DG4" s="1" t="n">
         <v>4611</v>
       </c>
-      <c r="DH4" s="0" t="n">
+      <c r="DH4" s="1" t="n">
         <v>4738</v>
       </c>
-      <c r="DI4" s="0" t="n">
+      <c r="DI4" s="1" t="n">
         <v>4878</v>
       </c>
-      <c r="DJ4" s="0" t="n">
+      <c r="DJ4" s="1" t="n">
         <v>5083</v>
       </c>
-      <c r="DK4" s="0" t="n">
+      <c r="DK4" s="1" t="n">
         <v>5203</v>
       </c>
-      <c r="DL4" s="0" t="n">
+      <c r="DL4" s="1" t="n">
         <v>5303</v>
       </c>
-      <c r="DM4" s="0" t="n">
+      <c r="DM4" s="1" t="n">
         <v>5403</v>
       </c>
-      <c r="DN4" s="0" t="n">
+      <c r="DN4" s="1" t="n">
         <v>5473</v>
       </c>
-      <c r="DO4" s="0" t="n">
+      <c r="DO4" s="1" t="n">
         <v>5573</v>
       </c>
-      <c r="DP4" s="0" t="n">
+      <c r="DP4" s="1" t="n">
         <v>5653</v>
       </c>
-      <c r="DQ4" s="0" t="n">
+      <c r="DQ4" s="1" t="n">
         <v>5914</v>
       </c>
-      <c r="DR4" s="0" t="n">
+      <c r="DR4" s="1" t="n">
         <v>6128</v>
       </c>
-      <c r="DS4" s="0" t="n">
+      <c r="DS4" s="1" t="n">
         <v>6366</v>
       </c>
-      <c r="DT4" s="0" t="n">
+      <c r="DT4" s="1" t="n">
         <v>6632</v>
       </c>
-      <c r="DU4" s="0" t="n">
+      <c r="DU4" s="1" t="n">
         <v>6932</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="n">
+      <c r="A5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="P5" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="Q5" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="R5" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="S5" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="T5" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="U5" s="0" t="n">
+      <c r="U5" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="V5" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="W5" s="0" t="n">
+      <c r="W5" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="X5" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="Y5" s="0" t="n">
+      <c r="Y5" s="1" t="n">
         <v>256</v>
       </c>
-      <c r="Z5" s="0" t="n">
+      <c r="Z5" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="AA5" s="0" t="n">
+      <c r="AA5" s="1" t="n">
         <v>386</v>
       </c>
-      <c r="AB5" s="0" t="n">
+      <c r="AB5" s="1" t="n">
         <v>440</v>
       </c>
-      <c r="AC5" s="0" t="n">
+      <c r="AC5" s="1" t="n">
         <v>475</v>
       </c>
-      <c r="AD5" s="0" t="n">
+      <c r="AD5" s="1" t="n">
         <v>499</v>
       </c>
-      <c r="AE5" s="0" t="n">
+      <c r="AE5" s="1" t="n">
         <v>514</v>
       </c>
-      <c r="AF5" s="0" t="n">
+      <c r="AF5" s="1" t="n">
         <v>522</v>
       </c>
-      <c r="AG5" s="0" t="n">
+      <c r="AG5" s="1" t="n">
         <v>555</v>
       </c>
-      <c r="AH5" s="0" t="n">
+      <c r="AH5" s="1" t="n">
         <v>590</v>
       </c>
-      <c r="AI5" s="0" t="n">
+      <c r="AI5" s="1" t="n">
         <v>590</v>
       </c>
-      <c r="AJ5" s="0" t="n">
+      <c r="AJ5" s="1" t="n">
         <v>603</v>
       </c>
-      <c r="AK5" s="0" t="n">
+      <c r="AK5" s="1" t="n">
         <v>638</v>
       </c>
-      <c r="AL5" s="0" t="n">
+      <c r="AL5" s="1" t="n">
         <v>664</v>
       </c>
-      <c r="AM5" s="0" t="n">
+      <c r="AM5" s="1" t="n">
         <v>690</v>
       </c>
-      <c r="AN5" s="0" t="n">
+      <c r="AN5" s="1" t="n">
         <v>770</v>
       </c>
-      <c r="AO5" s="0" t="n">
+      <c r="AO5" s="1" t="n">
         <v>785</v>
       </c>
-      <c r="AP5" s="0" t="n">
+      <c r="AP5" s="1" t="n">
         <v>796</v>
       </c>
-      <c r="AQ5" s="0" t="n">
+      <c r="AQ5" s="1" t="n">
         <v>857</v>
       </c>
-      <c r="AR5" s="0" t="n">
+      <c r="AR5" s="1" t="n">
         <v>872</v>
       </c>
-      <c r="AS5" s="0" t="n">
+      <c r="AS5" s="1" t="n">
         <v>958</v>
       </c>
-      <c r="AT5" s="0" t="n">
+      <c r="AT5" s="1" t="n">
         <v>1034</v>
       </c>
-      <c r="AU5" s="0" t="n">
+      <c r="AU5" s="1" t="n">
         <v>1037</v>
       </c>
-      <c r="AV5" s="0" t="n">
+      <c r="AV5" s="1" t="n">
         <v>1117</v>
       </c>
-      <c r="AW5" s="0" t="n">
+      <c r="AW5" s="1" t="n">
         <v>1124</v>
       </c>
-      <c r="AX5" s="0" t="n">
+      <c r="AX5" s="1" t="n">
         <v>1171</v>
       </c>
-      <c r="AY5" s="0" t="n">
+      <c r="AY5" s="1" t="n">
         <v>1221</v>
       </c>
-      <c r="AZ5" s="0" t="n">
+      <c r="AZ5" s="1" t="n">
         <v>1267</v>
       </c>
-      <c r="BA5" s="0" t="n">
+      <c r="BA5" s="1" t="n">
         <v>1284</v>
       </c>
-      <c r="BB5" s="0" t="n">
+      <c r="BB5" s="1" t="n">
         <v>1419</v>
       </c>
-      <c r="BC5" s="0" t="n">
+      <c r="BC5" s="1" t="n">
         <v>1502</v>
       </c>
-      <c r="BD5" s="0" t="n">
+      <c r="BD5" s="1" t="n">
         <v>1536</v>
       </c>
-      <c r="BE5" s="0" t="n">
+      <c r="BE5" s="1" t="n">
         <v>1669</v>
       </c>
-      <c r="BF5" s="0" t="n">
+      <c r="BF5" s="1" t="n">
         <v>1772</v>
       </c>
-      <c r="BG5" s="0" t="n">
+      <c r="BG5" s="1" t="n">
         <v>1863</v>
       </c>
-      <c r="BH5" s="0" t="n">
+      <c r="BH5" s="1" t="n">
         <v>1921</v>
       </c>
-      <c r="BI5" s="0" t="n">
+      <c r="BI5" s="1" t="n">
         <v>2105</v>
       </c>
-      <c r="BJ5" s="0" t="n">
+      <c r="BJ5" s="1" t="n">
         <v>2152</v>
       </c>
-      <c r="BK5" s="0" t="n">
+      <c r="BK5" s="1" t="n">
         <v>2296</v>
       </c>
-      <c r="BL5" s="0" t="n">
+      <c r="BL5" s="1" t="n">
         <v>2377</v>
       </c>
-      <c r="BM5" s="0" t="n">
+      <c r="BM5" s="1" t="n">
         <v>2496</v>
       </c>
-      <c r="BN5" s="0" t="n">
+      <c r="BN5" s="1" t="n">
         <v>2998</v>
       </c>
-      <c r="BO5" s="0" t="n">
+      <c r="BO5" s="1" t="n">
         <v>3129</v>
       </c>
-      <c r="BP5" s="0" t="n">
+      <c r="BP5" s="1" t="n">
         <v>3595</v>
       </c>
-      <c r="BQ5" s="0" t="n">
+      <c r="BQ5" s="1" t="n">
         <v>3663</v>
       </c>
-      <c r="BR5" s="0" t="n">
+      <c r="BR5" s="1" t="n">
         <v>3886</v>
       </c>
-      <c r="BS5" s="0" t="n">
+      <c r="BS5" s="1" t="n">
         <v>3943</v>
       </c>
-      <c r="BT5" s="0" t="n">
+      <c r="BT5" s="1" t="n">
         <v>4142</v>
       </c>
-      <c r="BU5" s="0" t="n">
+      <c r="BU5" s="1" t="n">
         <v>4313</v>
       </c>
-      <c r="BV5" s="0" t="n">
+      <c r="BV5" s="1" t="n">
         <v>4414</v>
       </c>
-      <c r="BW5" s="0" t="n">
+      <c r="BW5" s="1" t="n">
         <v>4613</v>
       </c>
-      <c r="BX5" s="0" t="n">
+      <c r="BX5" s="1" t="n">
         <v>4857</v>
       </c>
-      <c r="BY5" s="0" t="n">
+      <c r="BY5" s="1" t="n">
         <v>4922</v>
       </c>
-      <c r="BZ5" s="0" t="n">
+      <c r="BZ5" s="1" t="n">
         <v>5135</v>
       </c>
-      <c r="CA5" s="0" t="n">
+      <c r="CA5" s="1" t="n">
         <v>5318</v>
       </c>
-      <c r="CB5" s="0" t="n">
+      <c r="CB5" s="1" t="n">
         <v>5408</v>
       </c>
-      <c r="CC5" s="0" t="n">
+      <c r="CC5" s="1" t="n">
         <v>5549</v>
       </c>
-      <c r="CD5" s="0" t="n">
+      <c r="CD5" s="1" t="n">
         <v>5835</v>
       </c>
-      <c r="CE5" s="0" t="n">
+      <c r="CE5" s="1" t="n">
         <v>5948</v>
       </c>
-      <c r="CF5" s="0" t="n">
+      <c r="CF5" s="1" t="n">
         <v>6313</v>
       </c>
-      <c r="CG5" s="0" t="n">
+      <c r="CG5" s="1" t="n">
         <v>6533</v>
       </c>
-      <c r="CH5" s="0" t="n">
+      <c r="CH5" s="1" t="n">
         <v>6806</v>
       </c>
-      <c r="CI5" s="0" t="n">
+      <c r="CI5" s="1" t="n">
         <v>7103</v>
       </c>
-      <c r="CJ5" s="0" t="n">
+      <c r="CJ5" s="1" t="n">
         <v>7421</v>
       </c>
-      <c r="CK5" s="0" t="n">
+      <c r="CK5" s="1" t="n">
         <v>7597</v>
       </c>
-      <c r="CL5" s="0" t="n">
+      <c r="CL5" s="1" t="n">
         <v>7793</v>
       </c>
-      <c r="CM5" s="0" t="n">
+      <c r="CM5" s="1" t="n">
         <v>8063</v>
       </c>
-      <c r="CN5" s="0" t="n">
+      <c r="CN5" s="1" t="n">
         <v>8308</v>
       </c>
-      <c r="CO5" s="0" t="n">
+      <c r="CO5" s="1" t="n">
         <v>8533</v>
       </c>
-      <c r="CP5" s="0" t="n">
+      <c r="CP5" s="1" t="n">
         <v>8917</v>
       </c>
-      <c r="CQ5" s="0" t="n">
+      <c r="CQ5" s="1" t="n">
         <v>9057</v>
       </c>
-      <c r="CR5" s="0" t="n">
+      <c r="CR5" s="1" t="n">
         <v>9451</v>
       </c>
-      <c r="CS5" s="0" t="n">
+      <c r="CS5" s="1" t="n">
         <v>9542</v>
       </c>
-      <c r="CT5" s="0" t="n">
+      <c r="CT5" s="1" t="n">
         <v>9857</v>
       </c>
-      <c r="CU5" s="0" t="n">
+      <c r="CU5" s="1" t="n">
         <v>10115</v>
       </c>
-      <c r="CV5" s="0" t="n">
+      <c r="CV5" s="1" t="n">
         <v>10298</v>
       </c>
-      <c r="CW5" s="0" t="n">
+      <c r="CW5" s="1" t="n">
         <v>10545</v>
       </c>
-      <c r="CX5" s="0" t="n">
+      <c r="CX5" s="1" t="n">
         <v>10901</v>
       </c>
-      <c r="CY5" s="0" t="n">
+      <c r="CY5" s="1" t="n">
         <v>11178</v>
       </c>
-      <c r="CZ5" s="0" t="n">
+      <c r="CZ5" s="1" t="n">
         <v>11508</v>
       </c>
-      <c r="DA5" s="0" t="n">
+      <c r="DA5" s="1" t="n">
         <v>11805</v>
       </c>
-      <c r="DB5" s="0" t="n">
+      <c r="DB5" s="1" t="n">
         <v>12136</v>
       </c>
-      <c r="DC5" s="0" t="n">
+      <c r="DC5" s="1" t="n">
         <v>12321</v>
       </c>
-      <c r="DD5" s="0" t="n">
+      <c r="DD5" s="1" t="n">
         <v>12695</v>
       </c>
-      <c r="DE5" s="0" t="n">
+      <c r="DE5" s="1" t="n">
         <v>13048</v>
       </c>
-      <c r="DF5" s="0" t="n">
+      <c r="DF5" s="1" t="n">
         <v>13461</v>
       </c>
-      <c r="DG5" s="0" t="n">
+      <c r="DG5" s="1" t="n">
         <v>14013</v>
       </c>
-      <c r="DH5" s="0" t="n">
+      <c r="DH5" s="1" t="n">
         <v>14321</v>
       </c>
-      <c r="DI5" s="0" t="n">
+      <c r="DI5" s="1" t="n">
         <v>14601</v>
       </c>
-      <c r="DJ5" s="0" t="n">
+      <c r="DJ5" s="1" t="n">
         <v>14967</v>
       </c>
-      <c r="DK5" s="0" t="n">
+      <c r="DK5" s="1" t="n">
         <v>15484</v>
       </c>
-      <c r="DL5" s="0" t="n">
+      <c r="DL5" s="1" t="n">
         <v>15730</v>
       </c>
-      <c r="DM5" s="0" t="n">
+      <c r="DM5" s="1" t="n">
         <v>16140</v>
       </c>
-      <c r="DN5" s="0" t="n">
+      <c r="DN5" s="1" t="n">
         <v>16658</v>
       </c>
-      <c r="DO5" s="0" t="n">
+      <c r="DO5" s="1" t="n">
         <v>16877</v>
       </c>
-      <c r="DP5" s="0" t="n">
+      <c r="DP5" s="1" t="n">
         <v>17230</v>
       </c>
-      <c r="DQ5" s="0" t="n">
+      <c r="DQ5" s="1" t="n">
         <v>17395</v>
       </c>
-      <c r="DR5" s="0" t="n">
+      <c r="DR5" s="1" t="n">
         <v>17574</v>
       </c>
-      <c r="DS5" s="0" t="n">
+      <c r="DS5" s="1" t="n">
         <v>17829</v>
       </c>
-      <c r="DT5" s="0" t="n">
+      <c r="DT5" s="1" t="n">
         <v>18033</v>
       </c>
-      <c r="DU5" s="0" t="n">
+      <c r="DU5" s="1" t="n">
         <v>18308</v>
       </c>
     </row>
